--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32536.3241110517</v>
+        <v>-35017.2439365106</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>262.8358844737547</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>40.71072521252484</v>
       </c>
       <c r="E11" t="n">
         <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579953</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,7 +1528,7 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
@@ -1537,16 +1537,16 @@
         <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.0120060829209</v>
+        <v>28.75870499835617</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1591,10 +1591,10 @@
         <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.65368373620286</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>3.190091911652019</v>
+        <v>61.67577209756996</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851353</v>
@@ -1625,7 +1625,7 @@
         <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>82.2676152010494</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
@@ -1664,7 +1664,7 @@
         <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
         <v>322.3208221302866</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>56.32064425466378</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>88.44202534652074</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292089</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
@@ -1850,13 +1850,13 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>283.8215270109009</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134330121</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
         <v>177.099888753183</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2020,7 +2020,7 @@
         <v>70.85973170860177</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411909</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0533602654133</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948565</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2084,16 +2084,16 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>223.0813256132548</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>336.9550866703237</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816015</v>
@@ -2141,7 +2141,7 @@
         <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
@@ -2290,7 +2290,7 @@
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654128</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
@@ -2299,7 +2299,7 @@
         <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>275.0274093258348</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245684</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.099888753183</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2494,7 +2494,7 @@
         <v>70.85973170860177</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4571372041191</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432833</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S25" t="n">
-        <v>178.2734363206855</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
         <v>145.6536660704502</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>214.2140663782812</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.20693826439345</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>205.4124289181752</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3512,10 +3512,10 @@
         <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592154</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007077</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115151</v>
@@ -3560,13 +3560,13 @@
         <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279485</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383222</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482617</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092315</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.20693826439458</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3718,16 +3718,16 @@
         <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>163.106871388384</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H41" t="n">
         <v>196.9230441592154</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279485</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>111.7690391349174</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I43" t="n">
-        <v>42.20693826439383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3986,13 +3986,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>111.7690391349161</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E46" t="n">
-        <v>90.95618068285802</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1808.151777441434</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1542.660985043702</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.587353696676</v>
+        <v>1098.185049298301</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9911683581549</v>
+        <v>739.58886395978</v>
       </c>
       <c r="F11" t="n">
-        <v>469.197330828271</v>
+        <v>739.58886395978</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31694793299118</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299118</v>
+        <v>81.316947932991</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.820141253115</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U11" t="n">
-        <v>3146.820141253115</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2842.949321169268</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2517.372733158878</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2171.099042157522</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1808.151777441434</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.5250939555585</v>
+        <v>451.9018305756481</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5250939555585</v>
+        <v>310.1577149074649</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029464</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E13" t="n">
-        <v>515.879495480277</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420903</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705055</v>
       </c>
       <c r="L13" t="n">
         <v>712.1345656402568</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2111.452912090498</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1946.959095177048</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991585</v>
+        <v>1752.384547006297</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376952</v>
+        <v>1490.473747391665</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.392133430789</v>
+        <v>1262.981326445501</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535522</v>
+        <v>1000.756223668264</v>
       </c>
       <c r="X13" t="n">
-        <v>967.1670306535522</v>
+        <v>799.9587400299704</v>
       </c>
       <c r="Y13" t="n">
-        <v>913.9814915260745</v>
+        <v>606.358228146164</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1443.177814041263</v>
+        <v>1502.254258673504</v>
       </c>
       <c r="C14" t="n">
-        <v>1101.407364360575</v>
+        <v>1160.483808992816</v>
       </c>
       <c r="D14" t="n">
         <v>1098.185049298301</v>
       </c>
       <c r="E14" t="n">
-        <v>739.5888639597799</v>
+        <v>739.58886395978</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597799</v>
+        <v>739.58886395978</v>
       </c>
       <c r="G14" t="n">
         <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299103</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810568</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5312,16 +5312,16 @@
         <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2837.383130573496</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2511.806542563106</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2165.532851561749</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1802.585586845662</v>
+        <v>1861.662031477902</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>572.7690351314527</v>
+        <v>418.3126375609357</v>
       </c>
       <c r="C16" t="n">
-        <v>515.8794954802769</v>
+        <v>276.5685218927525</v>
       </c>
       <c r="D16" t="n">
-        <v>515.8794954802769</v>
+        <v>276.5685218927525</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802769</v>
+        <v>155.8474955700831</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420902</v>
+        <v>155.8474955700831</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765329</v>
+        <v>155.8474955700831</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,37 +5449,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991586</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.39213343079</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535527</v>
+        <v>967.1670306535518</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152591</v>
+        <v>766.3695470152581</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314527</v>
+        <v>572.7690351314518</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1830.862197398326</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C17" t="n">
-        <v>1536.541380665712</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>1252.917382266758</v>
+        <v>940.9592424104335</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>629.8126900199862</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>293.4684854381755</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,25 +5513,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5665,22 +5665,22 @@
         <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604109</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,16 +5692,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
         <v>1370.445531062878</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1797.031012604319</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1502.710195871704</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>940.9592424104335</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446363</v>
+        <v>629.8126900199867</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8126900199867</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5789,13 +5789,13 @@
         <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
-        <v>2723.310842281941</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.486784228659</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y20" t="n">
-        <v>2108.989152460644</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="21">
@@ -5829,10 +5829,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
         <v>765.1517452158134</v>
@@ -5938,13 +5938,13 @@
         <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
         <v>975.6272732356247</v>
@@ -5972,10 +5972,10 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.0946095349356</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.750404953125</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
@@ -5990,19 +5990,19 @@
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.526753844414</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
         <v>1917.058658516338</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575121</v>
+        <v>2463.83747557512</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454458</v>
+        <v>2966.809946454457</v>
       </c>
       <c r="P23" t="n">
         <v>3361.584312811635</v>
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714076</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902806</v>
       </c>
       <c r="D24" t="n">
         <v>625.0220539290294</v>
@@ -6057,22 +6057,22 @@
         <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094445</v>
       </c>
       <c r="I24" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243131</v>
+        <v>167.0550243130999</v>
       </c>
       <c r="K24" t="n">
         <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061124</v>
+        <v>772.0173836061125</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6081,19 +6081,19 @@
         <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775277</v>
+        <v>575.9874173775275</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574177</v>
+        <v>481.6929346574176</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528789</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782828</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
         <v>260.6983547881694</v>
@@ -6139,13 +6139,13 @@
         <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634008</v>
+        <v>96.06173179634007</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342414</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119737</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455088</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259239</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357034</v>
+        <v>829.1450609357033</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999704</v>
+        <v>682.9941819999702</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424366</v>
+        <v>3051.647429808958</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6327,25 +6327,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6412,13 +6412,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,22 +6461,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.011402386886</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058811</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3051.647429808958</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
@@ -6494,10 +6494,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6604,10 +6604,10 @@
         <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,7 +6640,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
         <v>2271.591606277852</v>
@@ -6649,13 +6649,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6701,46 +6701,46 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>875.9322461484392</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1326.966459396848</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>3080.016953737237</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6856,25 +6856,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960309</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982166</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,25 +6935,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6968,19 +6968,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -7032,7 +7032,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909359</v>
+        <v>500.9308303909353</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368723</v>
+        <v>430.6660820368719</v>
       </c>
       <c r="D37" t="n">
-        <v>379.22087719838</v>
+        <v>379.2208771983796</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898302</v>
+        <v>329.97921818983</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1884.661277114358</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1791.646827515027</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1569.880212084553</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1379.44877978404</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V37" t="n">
-        <v>1124.764291578153</v>
+        <v>1026.092857004309</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150363</v>
+        <v>835.347121541192</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908623</v>
+        <v>706.0290052170182</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.9078606473322</v>
+        <v>583.9078606473315</v>
       </c>
     </row>
     <row r="38">
@@ -7157,40 +7157,40 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7257,19 +7257,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>698.2736995386222</v>
+        <v>599.6022649647788</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107153</v>
+        <v>430.6660820368719</v>
       </c>
       <c r="D40" t="n">
-        <v>379.2208771983795</v>
+        <v>379.2208771983796</v>
       </c>
       <c r="E40" t="n">
         <v>329.97921818983</v>
@@ -7321,13 +7321,13 @@
         <v>281.7607052657631</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1884.661277114356</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1692.975392941183</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1569.880212084552</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1379.44877978404</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1223.435726151996</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.689990688879</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X40" t="n">
-        <v>903.371874364705</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y40" t="n">
-        <v>781.2507297950184</v>
+        <v>682.579295221175</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,7 +7394,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307332</v>
@@ -7403,58 +7403,58 @@
         <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>740.9069705127577</v>
+        <v>444.8926667912277</v>
       </c>
       <c r="C43" t="n">
-        <v>670.6422221586942</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D43" t="n">
-        <v>520.5255827463584</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E43" t="n">
-        <v>372.6124891639653</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F43" t="n">
-        <v>324.3939762398984</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G43" t="n">
-        <v>255.3625741884608</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>109.1453874063186</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X43" t="n">
-        <v>946.0051453388405</v>
+        <v>649.9908416173105</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.8840007691539</v>
+        <v>527.8696970476238</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,25 +7646,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7676,22 +7676,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389142</v>
+        <v>444.892666791227</v>
       </c>
       <c r="C46" t="n">
-        <v>473.2993530110073</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D46" t="n">
-        <v>323.1827135986715</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332018</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663014</v>
+        <v>779.3089579414841</v>
       </c>
       <c r="X46" t="n">
-        <v>946.0051453388405</v>
+        <v>649.9908416173101</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953104</v>
+        <v>527.8696970476234</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>157.235310843063</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729005</v>
+        <v>184.4039433729006</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389601</v>
+        <v>191.4948909389602</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333064</v>
+        <v>181.0856325333065</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830238</v>
+        <v>179.3553748830239</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383987</v>
+        <v>182.8301554383988</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586582</v>
+        <v>190.8908035586583</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266122</v>
+        <v>192.0103836266123</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,22 +8535,22 @@
         <v>113.6031223372532</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672272</v>
+        <v>105.9629718672273</v>
       </c>
       <c r="M9" t="n">
         <v>104.1013981253591</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677629</v>
+        <v>92.30246558677638</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359733</v>
+        <v>106.8829608359734</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798322</v>
+        <v>105.3113487798323</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615456</v>
+        <v>120.8212784615457</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,16 +8617,16 @@
         <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085226</v>
+        <v>119.1996074085227</v>
       </c>
       <c r="N10" t="n">
         <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530923</v>
+        <v>120.6694600530924</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662703</v>
+        <v>122.5080856662704</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>339.8144253784356</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.8144253784346</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.220684154416</v>
+        <v>306.6874953089259</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,19 +10115,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>287.0017854473904</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>306.6874953089259</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>105.7385611944699</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>277.2206841544154</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>75.51686071012644</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.0521698210317</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.2676152010494</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>33.25330108456471</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.0108230287655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>324.5728031219045</v>
+        <v>266.0871229359865</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>84.00603025683759</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>29.3928429806736</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>24.21355985564185</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0521183134043</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>57.70643280170919</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.07135577741070165</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959380.9925466895</v>
+        <v>959380.9925466896</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959380.9925466898</v>
+        <v>959380.9925466896</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1043869.058990719</v>
+        <v>1043869.05899072</v>
       </c>
     </row>
     <row r="9">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368674.3524226673</v>
+        <v>368674.3524226674</v>
       </c>
       <c r="C2" t="n">
         <v>368674.3524226674</v>
       </c>
       <c r="D2" t="n">
-        <v>368684.4014126758</v>
+        <v>368684.4014126757</v>
       </c>
       <c r="E2" t="n">
-        <v>328293.0004072385</v>
+        <v>328293.0004072386</v>
       </c>
       <c r="F2" t="n">
-        <v>328293.0004072384</v>
+        <v>328293.0004072386</v>
       </c>
       <c r="G2" t="n">
-        <v>357538.8695609418</v>
+        <v>357538.8695609415</v>
       </c>
       <c r="H2" t="n">
-        <v>357538.8695609416</v>
+        <v>357538.8695609415</v>
       </c>
       <c r="I2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="J2" t="n">
         <v>369468.7964389276</v>
       </c>
       <c r="K2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="L2" t="n">
         <v>369468.7964389279</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="N2" t="n">
         <v>369468.7964389275</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="P2" t="n">
         <v>369468.7964389276</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552322</v>
+        <v>59764.55367552309</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163631</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>37580.10929487406</v>
@@ -26387,19 +26387,19 @@
         <v>22821.46782983372</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927244</v>
       </c>
       <c r="N3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>38804.27401362515</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362515</v>
+        <v>38804.27401362521</v>
       </c>
       <c r="G4" t="n">
         <v>75832.43437506736</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506736</v>
+        <v>75832.43437506739</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451311</v>
+        <v>88045.16093451309</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173095</v>
+        <v>84858.15940173093</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173084</v>
+        <v>84858.15940173094</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173094</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="M4" t="n">
+        <v>90964.01098815718</v>
+      </c>
+      <c r="N4" t="n">
+        <v>90964.01098815717</v>
+      </c>
+      <c r="O4" t="n">
+        <v>90964.01098815718</v>
+      </c>
+      <c r="P4" t="n">
         <v>90964.0109881571</v>
-      </c>
-      <c r="N4" t="n">
-        <v>90964.01098815718</v>
-      </c>
-      <c r="O4" t="n">
-        <v>90964.01098815716</v>
-      </c>
-      <c r="P4" t="n">
-        <v>90964.01098815716</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>35148.90543186637</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482642</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184212</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="N5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624984</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>82518.59730624984</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624985</v>
-      </c>
-      <c r="P5" t="n">
-        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106602.4975731531</v>
+        <v>-106606.9111510212</v>
       </c>
       <c r="C6" t="n">
-        <v>-106602.4975731531</v>
+        <v>-106606.9111510213</v>
       </c>
       <c r="D6" t="n">
-        <v>-147866.9964942563</v>
+        <v>-147871.354244402</v>
       </c>
       <c r="E6" t="n">
-        <v>-876319.7361348444</v>
+        <v>-876548.490557243</v>
       </c>
       <c r="F6" t="n">
-        <v>212919.2360287865</v>
+        <v>212690.4816063888</v>
       </c>
       <c r="G6" t="n">
-        <v>163607.6827657855</v>
+        <v>163541.4053942409</v>
       </c>
       <c r="H6" t="n">
-        <v>201187.7920606595</v>
+        <v>201121.5146891149</v>
       </c>
       <c r="I6" t="n">
-        <v>172865.6393727386</v>
+        <v>172865.639372739</v>
       </c>
       <c r="J6" t="n">
-        <v>169823.2623405936</v>
+        <v>169823.2623405937</v>
       </c>
       <c r="K6" t="n">
         <v>195232.6953623905</v>
       </c>
       <c r="L6" t="n">
-        <v>157652.5860675168</v>
+        <v>157652.5860675169</v>
       </c>
       <c r="M6" t="n">
-        <v>-6181.911848203512</v>
+        <v>-6181.911848203585</v>
       </c>
       <c r="N6" t="n">
-        <v>195986.1881445203</v>
+        <v>195986.1881445204</v>
       </c>
       <c r="O6" t="n">
+        <v>195986.1881445206</v>
+      </c>
+      <c r="P6" t="n">
         <v>195986.1881445208</v>
-      </c>
-      <c r="P6" t="n">
-        <v>195986.1881445207</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="N2" t="n">
+        <v>97.68472022810505</v>
+      </c>
+      <c r="O2" t="n">
         <v>97.68472022810508</v>
       </c>
-      <c r="O2" t="n">
-        <v>97.68472022810502</v>
-      </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790692</v>
+        <v>69.78465283790678</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26811,7 +26811,7 @@
         <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26823,10 +26823,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951236</v>
+        <v>50.7095836095125</v>
       </c>
       <c r="N2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790692</v>
+        <v>69.78465283790678</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104726</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780173</v>
+        <v>132.2465643780174</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036572</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698751</v>
+        <v>90.83829126987513</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519078</v>
+        <v>84.46220888519079</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990227</v>
+        <v>7.649035050990257</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317044</v>
+        <v>75.62456067317046</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437877</v>
@@ -28582,7 +28582,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28773,10 +28773,10 @@
         <v>73.89528320571901</v>
       </c>
       <c r="T19" t="n">
-        <v>11.49558901075591</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="V19" t="n">
         <v>73.89528320571901</v>
@@ -29010,7 +29010,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="U22" t="n">
         <v>73.89528320571901</v>
@@ -29019,7 +29019,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="W22" t="n">
-        <v>11.49558901075619</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X22" t="n">
         <v>73.89528320571901</v>
@@ -29056,7 +29056,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="S25" t="n">
-        <v>11.49558901075642</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T25" t="n">
         <v>73.89528320571901</v>
@@ -29259,7 +29259,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="Y25" t="n">
         <v>73.89528320571901</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859212</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859273</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.72521440565389</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>46.72521440565285</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.72521440565276</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810508</v>
+        <v>55.47778196371078</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>55.4777819637104</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I43" t="n">
-        <v>54.14548214544428</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>55.47778196371175</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E46" t="n">
-        <v>55.47778196371115</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413341</v>
+        <v>0.2805413179413336</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366689</v>
+        <v>2.873093772366683</v>
       </c>
       <c r="I8" t="n">
-        <v>10.8155691599333</v>
+        <v>10.81556915993327</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362333</v>
+        <v>23.81059368362328</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208001</v>
+        <v>35.68590767207994</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102713</v>
+        <v>44.27152403102703</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396632</v>
+        <v>49.26060069396623</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356715</v>
+        <v>50.05768871356704</v>
       </c>
       <c r="O8" t="n">
-        <v>47.268055983288</v>
+        <v>47.2680559832879</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661131</v>
+        <v>40.34219219661122</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783727</v>
+        <v>30.29530624783721</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313235</v>
+        <v>17.62255356313231</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588158</v>
+        <v>6.392835282588145</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288191</v>
+        <v>1.228069619288188</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530672</v>
+        <v>0.02244330543530668</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796488</v>
+        <v>0.1501028381796485</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840293</v>
+        <v>1.44967741084029</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694051</v>
+        <v>5.168014384694041</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906937</v>
+        <v>14.18142647906934</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710584</v>
+        <v>24.23831663710579</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264701</v>
+        <v>32.59140791264694</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665926</v>
+        <v>38.03263579665919</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655701</v>
+        <v>39.03924649655693</v>
       </c>
       <c r="O9" t="n">
-        <v>35.7132836084711</v>
+        <v>35.71328360847103</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449804</v>
+        <v>28.66305863449798</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447588</v>
+        <v>19.16049562447584</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768026</v>
+        <v>9.319542882768006</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608827</v>
+        <v>2.788094384608821</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189023</v>
+        <v>0.6050197731890218</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345324</v>
+        <v>0.009875186722345303</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486846</v>
+        <v>0.1258411772486843</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811033</v>
+        <v>1.118842466811031</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078625</v>
+        <v>3.784387403078617</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482</v>
+        <v>8.896971231481983</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489263</v>
+        <v>14.6204567748926</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477262</v>
+        <v>18.70915102477258</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908244</v>
+        <v>19.7261765390824</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115554</v>
+        <v>19.2571321511555</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875045</v>
+        <v>17.78707839875041</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287727</v>
+        <v>15.21991838287723</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852394</v>
+        <v>10.53748257852392</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381762</v>
+        <v>5.65827693338175</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233894</v>
+        <v>2.193068516233889</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625613</v>
+        <v>0.5376850300625602</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564622</v>
+        <v>0.006864064213564608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233474</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33749,13 +33749,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35574,16 +35574,16 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.191286555402</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,16 +35811,16 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O20" t="n">
         <v>508.053000888219</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013291</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>795.4045397707675</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>878.7355412086614</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359774</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36610,13 +36610,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737876</v>
+        <v>705.4494815282975</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>742.5918998397226</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>705.4494815282975</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>442.9298477498703</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>785.2736850426344</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165831</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,13 +37397,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687133</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
